--- a/data/trans_orig/P16A11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>98689</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81361</v>
+        <v>81686</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>116313</v>
+        <v>116727</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1424103026824505</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1174054823054194</v>
+        <v>0.1178738248142543</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1678405651268572</v>
+        <v>0.1684386461922895</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>117</v>
@@ -765,19 +765,19 @@
         <v>114490</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96098</v>
+        <v>97047</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>134006</v>
+        <v>134024</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1663243384968333</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1396061822966126</v>
+        <v>0.1409851736634995</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1946772183868435</v>
+        <v>0.1947036609803836</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>216</v>
@@ -786,19 +786,19 @@
         <v>213179</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>187135</v>
+        <v>184116</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>240872</v>
+        <v>237924</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.154327131088538</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1354732911951275</v>
+        <v>0.1332873620483714</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1743752750398178</v>
+        <v>0.1722408784018631</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>594305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>576681</v>
+        <v>576267</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>611633</v>
+        <v>611308</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8575896973175494</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8321594348731427</v>
+        <v>0.8315613538077105</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8825945176945805</v>
+        <v>0.8821261751857457</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>579</v>
@@ -836,19 +836,19 @@
         <v>573861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>554345</v>
+        <v>554327</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>592253</v>
+        <v>591304</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8336756615031666</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8053227816131561</v>
+        <v>0.8052963390196165</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8603938177033874</v>
+        <v>0.8590148263365004</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1162</v>
@@ -857,19 +857,19 @@
         <v>1168166</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1140473</v>
+        <v>1143421</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1194210</v>
+        <v>1197229</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.845672868911462</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8256247249601821</v>
+        <v>0.827759121598137</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8645267088048721</v>
+        <v>0.8667126379516287</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>121399</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101799</v>
+        <v>102635</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>142280</v>
+        <v>142257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.126220468546539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1058426253655899</v>
+        <v>0.1067110106370505</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1479309847520487</v>
+        <v>0.1479073313733545</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>159</v>
@@ -982,19 +982,19 @@
         <v>170621</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148245</v>
+        <v>147628</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>194749</v>
+        <v>194913</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1761895563302478</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.153083924648348</v>
+        <v>0.152446817460186</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2011055394874506</v>
+        <v>0.2012749424116428</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>277</v>
@@ -1003,19 +1003,19 @@
         <v>292020</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>261291</v>
+        <v>263167</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>322988</v>
+        <v>322779</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1512903533413599</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1353703133806649</v>
+        <v>0.136342262148314</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1673344189877324</v>
+        <v>0.167226240874044</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>840401</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>819520</v>
+        <v>819543</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>860001</v>
+        <v>859165</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.873779531453461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8520690152479512</v>
+        <v>0.8520926686266456</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.89415737463441</v>
+        <v>0.8932889893629495</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>749</v>
@@ -1053,19 +1053,19 @@
         <v>797772</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>773644</v>
+        <v>773480</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>820148</v>
+        <v>820765</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8238104436697522</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7988944605125493</v>
+        <v>0.7987250575883572</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.846916075351652</v>
+        <v>0.8475531825398137</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1527</v>
@@ -1074,19 +1074,19 @@
         <v>1638173</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1607205</v>
+        <v>1607414</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1668902</v>
+        <v>1667026</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8487096466586401</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8326655810122676</v>
+        <v>0.832773759125956</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8646296866193351</v>
+        <v>0.863657737851686</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>86185</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70936</v>
+        <v>70687</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106330</v>
+        <v>106245</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1270214959991923</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1045465460539488</v>
+        <v>0.1041803851454697</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1567112427040399</v>
+        <v>0.1565856859406624</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -1199,19 +1199,19 @@
         <v>115214</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96990</v>
+        <v>94748</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135287</v>
+        <v>136232</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1684805549777232</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1418318121446408</v>
+        <v>0.1385519931722099</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1978342627730632</v>
+        <v>0.1992157158107693</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>198</v>
@@ -1220,19 +1220,19 @@
         <v>201399</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>177169</v>
+        <v>175788</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>228815</v>
+        <v>229727</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1478321590939039</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1300469210090928</v>
+        <v>0.1290327537674326</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1679563567191601</v>
+        <v>0.1686254302360328</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>592324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>572179</v>
+        <v>572264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>607573</v>
+        <v>607822</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8729785040008077</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8432887572959599</v>
+        <v>0.8434143140593373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8954534539460509</v>
+        <v>0.8958196148545302</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>581</v>
@@ -1270,19 +1270,19 @@
         <v>568627</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>548554</v>
+        <v>547609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>586851</v>
+        <v>589093</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8315194450222768</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8021657372269367</v>
+        <v>0.8007842841892306</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8581681878553591</v>
+        <v>0.86144800682779</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1139</v>
@@ -1291,19 +1291,19 @@
         <v>1160951</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1133535</v>
+        <v>1132623</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1185181</v>
+        <v>1186562</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8521678409060961</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.83204364328084</v>
+        <v>0.8313745697639674</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8699530789909073</v>
+        <v>0.8709672462325675</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>107289</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90008</v>
+        <v>90040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125737</v>
+        <v>125617</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1138676155664505</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09552730725342232</v>
+        <v>0.09556119380010182</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1334477564422133</v>
+        <v>0.1333197692930251</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>157</v>
@@ -1416,19 +1416,19 @@
         <v>163060</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>140573</v>
+        <v>142785</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>186696</v>
+        <v>189222</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1569976454224815</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1353470643144423</v>
+        <v>0.1374771208616242</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1797555186043976</v>
+        <v>0.182187684135185</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>277</v>
@@ -1437,19 +1437,19 @@
         <v>270348</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>242082</v>
+        <v>241145</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>299896</v>
+        <v>304496</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1364820115476133</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1222122634714986</v>
+        <v>0.1217390087277857</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1513990971315374</v>
+        <v>0.1537211871857934</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>834933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>816485</v>
+        <v>816605</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>852214</v>
+        <v>852182</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8861323844335495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8665522435577867</v>
+        <v>0.8666802307069749</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9044726927465777</v>
+        <v>0.9044388061998981</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>840</v>
@@ -1487,19 +1487,19 @@
         <v>875552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>851916</v>
+        <v>849390</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>898039</v>
+        <v>895827</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8430023545775185</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8202444813956025</v>
+        <v>0.817812315864815</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8646529356855576</v>
+        <v>0.8625228791383758</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1714</v>
@@ -1508,19 +1508,19 @@
         <v>1710486</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1680938</v>
+        <v>1676338</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1738752</v>
+        <v>1739689</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8635179884523867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8486009028684627</v>
+        <v>0.8462788128142066</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8777877365285014</v>
+        <v>0.8782609912722145</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>413562</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>377088</v>
+        <v>379797</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>450887</v>
+        <v>451768</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1262582732633914</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1151228848342048</v>
+        <v>0.1159498670397022</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1376532844291844</v>
+        <v>0.1379222289862497</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>548</v>
@@ -1633,19 +1633,19 @@
         <v>563384</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>523897</v>
+        <v>522641</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>608229</v>
+        <v>603517</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1667212087860317</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1550358272172512</v>
+        <v>0.1546642785561884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.17999211453439</v>
+        <v>0.1785978354055831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>968</v>
@@ -1654,19 +1654,19 @@
         <v>976946</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>916787</v>
+        <v>918769</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1038120</v>
+        <v>1039995</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.146804921696733</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1377649402942889</v>
+        <v>0.1380627711976847</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1559975467166324</v>
+        <v>0.1562792237040837</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2861963</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2824638</v>
+        <v>2823757</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2898437</v>
+        <v>2895728</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8737417267366087</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8623467155708157</v>
+        <v>0.8620777710137504</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8848771151657956</v>
+        <v>0.884050132960298</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2749</v>
@@ -1704,19 +1704,19 @@
         <v>2815813</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2770968</v>
+        <v>2775680</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2855300</v>
+        <v>2856556</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8332787912139683</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8200078854656099</v>
+        <v>0.8214021645944166</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8449641727827484</v>
+        <v>0.8453357214438114</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5542</v>
@@ -1725,19 +1725,19 @@
         <v>5677776</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5616602</v>
+        <v>5614727</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5737935</v>
+        <v>5735953</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.853195078303267</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.844002453283368</v>
+        <v>0.8437207762959157</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8622350597057111</v>
+        <v>0.8619372288023152</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>133063</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>112607</v>
+        <v>113713</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>154606</v>
+        <v>158599</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1896624318847755</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1605048640588207</v>
+        <v>0.1620815319443145</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.220368087992841</v>
+        <v>0.22605951867147</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>156</v>
@@ -2090,19 +2090,19 @@
         <v>167748</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>145731</v>
+        <v>147243</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>191167</v>
+        <v>191359</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2412485815249069</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.209585408962654</v>
+        <v>0.2117602576154377</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.274930212520098</v>
+        <v>0.2752060319707755</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>280</v>
@@ -2111,19 +2111,19 @@
         <v>300811</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>267519</v>
+        <v>271172</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>332739</v>
+        <v>332813</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2153401489488865</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1915076959484569</v>
+        <v>0.1941225713680504</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2381961484317767</v>
+        <v>0.2382493972722924</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>568516</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>546973</v>
+        <v>542980</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>588972</v>
+        <v>587866</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8103375681152245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7796319120071599</v>
+        <v>0.7739404813285293</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8394951359411794</v>
+        <v>0.8379184680556852</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>493</v>
@@ -2161,19 +2161,19 @@
         <v>527583</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>504164</v>
+        <v>503972</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>549600</v>
+        <v>548088</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7587514184750931</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7250697874799019</v>
+        <v>0.7247939680292245</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.790414591037346</v>
+        <v>0.7882397423845623</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1041</v>
@@ -2182,19 +2182,19 @@
         <v>1096099</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1064171</v>
+        <v>1064097</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1129391</v>
+        <v>1125738</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7846598510511136</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7618038515682233</v>
+        <v>0.7617506027277076</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.808492304051543</v>
+        <v>0.8058774286319496</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>150926</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128749</v>
+        <v>127381</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>175319</v>
+        <v>175191</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1482647317845355</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1264794088787983</v>
+        <v>0.1251349356665443</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1722276163174367</v>
+        <v>0.1721019789243722</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>176</v>
@@ -2307,19 +2307,19 @@
         <v>192013</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>166327</v>
+        <v>164861</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>218289</v>
+        <v>216863</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1870282057378648</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1620090268924953</v>
+        <v>0.1605810917204637</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2126221934354534</v>
+        <v>0.211233417561313</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>313</v>
@@ -2328,19 +2328,19 @@
         <v>342938</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>309190</v>
+        <v>309992</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>376193</v>
+        <v>384933</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1677289671480615</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1512228160571575</v>
+        <v>0.1516150242611688</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1839935573657405</v>
+        <v>0.1882681592074284</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>867021</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>842628</v>
+        <v>842756</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>889198</v>
+        <v>890566</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8517352682154645</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8277723836825636</v>
+        <v>0.8278980210756287</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8735205911212016</v>
+        <v>0.8748650643334558</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>759</v>
@@ -2378,19 +2378,19 @@
         <v>834637</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>808361</v>
+        <v>809787</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>860323</v>
+        <v>861789</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8129717942621352</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7873778065645469</v>
+        <v>0.7887665824386869</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8379909731075047</v>
+        <v>0.8394189082795355</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1558</v>
@@ -2399,19 +2399,19 @@
         <v>1701659</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1668404</v>
+        <v>1659664</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1735407</v>
+        <v>1734605</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8322710328519385</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8160064426342595</v>
+        <v>0.8117318407925713</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8487771839428425</v>
+        <v>0.8483849757388311</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>111802</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92967</v>
+        <v>94590</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133725</v>
+        <v>133930</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.147781302380253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1228849508096672</v>
+        <v>0.1250302792570866</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1767593466173129</v>
+        <v>0.177029944817498</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>126</v>
@@ -2524,19 +2524,19 @@
         <v>136985</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117251</v>
+        <v>115384</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>161302</v>
+        <v>160257</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1764630187676097</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1510420701781926</v>
+        <v>0.1486361754701589</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2077872994348983</v>
+        <v>0.2064416629320368</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>225</v>
@@ -2545,19 +2545,19 @@
         <v>248787</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>216973</v>
+        <v>221010</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>280272</v>
+        <v>280381</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1623068973750067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1415514131586622</v>
+        <v>0.1441849387059306</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1828472559525843</v>
+        <v>0.1829184174856207</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>644736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>622813</v>
+        <v>622608</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>663571</v>
+        <v>661948</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.852218697619747</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8232406533826863</v>
+        <v>0.8229700551825019</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8771150491903327</v>
+        <v>0.8749697207429132</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>578</v>
@@ -2595,19 +2595,19 @@
         <v>639298</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>614981</v>
+        <v>616026</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>659032</v>
+        <v>660899</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8235369812323903</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7922127005651017</v>
+        <v>0.7935583370679633</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8489579298218075</v>
+        <v>0.8513638245298411</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1167</v>
@@ -2616,19 +2616,19 @@
         <v>1284034</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1252549</v>
+        <v>1252440</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1315848</v>
+        <v>1311811</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8376931026249933</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8171527440474157</v>
+        <v>0.8170815825143792</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8584485868413377</v>
+        <v>0.8558150612940695</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>173563</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>147608</v>
+        <v>150047</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>197867</v>
+        <v>198250</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1834839904241074</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1560457357744542</v>
+        <v>0.1586235091992098</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2091770863913118</v>
+        <v>0.2095823957461721</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>230</v>
@@ -2741,19 +2741,19 @@
         <v>244795</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>217065</v>
+        <v>219112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>274676</v>
+        <v>276419</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2334131221407417</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2069722578336737</v>
+        <v>0.2089244874863483</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2619047584722875</v>
+        <v>0.2635664771084477</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>388</v>
@@ -2762,19 +2762,19 @@
         <v>418358</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>381459</v>
+        <v>380324</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>459614</v>
+        <v>457036</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2097355578048822</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1912368538596922</v>
+        <v>0.1906676913180887</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2304181293912312</v>
+        <v>0.2291259713584856</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>772367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>748063</v>
+        <v>747680</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>798322</v>
+        <v>795883</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8165160095758927</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7908229136086881</v>
+        <v>0.790417604253828</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8439542642255458</v>
+        <v>0.8413764908007902</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>770</v>
@@ -2812,19 +2812,19 @@
         <v>803968</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>774087</v>
+        <v>772344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>831698</v>
+        <v>829651</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7665868778592583</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7380952415277124</v>
+        <v>0.7364335228915522</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7930277421663263</v>
+        <v>0.7910755125136517</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1520</v>
@@ -2833,19 +2833,19 @@
         <v>1576336</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1535080</v>
+        <v>1537658</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1613235</v>
+        <v>1614370</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7902644421951177</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7695818706087688</v>
+        <v>0.7708740286415144</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8087631461403078</v>
+        <v>0.8093323086819114</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>569354</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>527706</v>
+        <v>514500</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>615411</v>
+        <v>611510</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1663807706519331</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.154210031930439</v>
+        <v>0.150350976944291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1798397490374349</v>
+        <v>0.1787000417900621</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>688</v>
@@ -2958,19 +2958,19 @@
         <v>741541</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>688015</v>
+        <v>697512</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>790975</v>
+        <v>793019</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.209059701032602</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.193969569612159</v>
+        <v>0.1966468755524213</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2229966806479228</v>
+        <v>0.2235727193707665</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1206</v>
@@ -2979,19 +2979,19 @@
         <v>1310894</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1240389</v>
+        <v>1246686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1376728</v>
+        <v>1379402</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1881030942623475</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1779861242379628</v>
+        <v>0.1788897491775781</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1975497307028977</v>
+        <v>0.1979334361481288</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2852640</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2806583</v>
+        <v>2810484</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2894288</v>
+        <v>2907494</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8336192293480669</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.820160250962565</v>
+        <v>0.8212999582099378</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8457899680695609</v>
+        <v>0.8496490230557089</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2600</v>
@@ -3029,19 +3029,19 @@
         <v>2805487</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2756053</v>
+        <v>2754009</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2859013</v>
+        <v>2849516</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.790940298967398</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7770033193520772</v>
+        <v>0.7764272806292336</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8060304303878411</v>
+        <v>0.8033531244475789</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5286</v>
@@ -3050,19 +3050,19 @@
         <v>5658127</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5592293</v>
+        <v>5589619</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5728632</v>
+        <v>5722335</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8118969057376525</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8024502692971023</v>
+        <v>0.8020665638518713</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8220138757620372</v>
+        <v>0.8211102508224221</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>102970</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86759</v>
+        <v>85143</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>125370</v>
+        <v>122609</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1525929083769315</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1285702346872471</v>
+        <v>0.1261756124834645</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1857879410543895</v>
+        <v>0.1816970746549811</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -3415,19 +3415,19 @@
         <v>131912</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>111115</v>
+        <v>112712</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>153859</v>
+        <v>154824</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1960530073833869</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1651438610737152</v>
+        <v>0.1675174607266557</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2286711460483547</v>
+        <v>0.2301054318808852</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>230</v>
@@ -3436,19 +3436,19 @@
         <v>234882</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>206200</v>
+        <v>208061</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>260250</v>
+        <v>262682</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1742913376395199</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1530084960160509</v>
+        <v>0.1543895407816626</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1931156310534765</v>
+        <v>0.1949200574171767</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>571830</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>549430</v>
+        <v>552191</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>588041</v>
+        <v>589657</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8474070916230685</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8142120589456104</v>
+        <v>0.8183029253450189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8714297653127528</v>
+        <v>0.8738243875165355</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>542</v>
@@ -3486,19 +3486,19 @@
         <v>540927</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>518980</v>
+        <v>518015</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>561724</v>
+        <v>560127</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8039469926166132</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7713288539516454</v>
+        <v>0.7698945681191149</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.834856138926285</v>
+        <v>0.8324825392733443</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1088</v>
@@ -3507,19 +3507,19 @@
         <v>1112757</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1087389</v>
+        <v>1084957</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1141439</v>
+        <v>1139578</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8257086623604801</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8068843689465235</v>
+        <v>0.8050799425828232</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8469915039839491</v>
+        <v>0.8456104592183373</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>147125</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125496</v>
+        <v>122678</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>173235</v>
+        <v>170125</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1438973528197575</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1227423145219907</v>
+        <v>0.1199862058521565</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1694340725800734</v>
+        <v>0.1663926646212232</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -3632,19 +3632,19 @@
         <v>173710</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>149145</v>
+        <v>147116</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>202736</v>
+        <v>200805</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1665624786113334</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1430079691537417</v>
+        <v>0.1410622524195719</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1943939766313872</v>
+        <v>0.1925425289784042</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>286</v>
@@ -3653,19 +3653,19 @@
         <v>320835</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>286791</v>
+        <v>287688</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>352505</v>
+        <v>359161</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1553423007077162</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1388586720132163</v>
+        <v>0.1392928676218593</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1706762205984069</v>
+        <v>0.1738989958971204</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>875306</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>849196</v>
+        <v>852306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>896935</v>
+        <v>899753</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8561026471802424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8305659274199266</v>
+        <v>0.8336073353787768</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8772576854780091</v>
+        <v>0.8800137941478435</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>834</v>
@@ -3703,19 +3703,19 @@
         <v>869203</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>840177</v>
+        <v>842108</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>893768</v>
+        <v>895797</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8334375213886666</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.805606023368613</v>
+        <v>0.8074574710215958</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8569920308462583</v>
+        <v>0.8589377475804281</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1642</v>
@@ -3724,19 +3724,19 @@
         <v>1744509</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1712839</v>
+        <v>1706183</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1778553</v>
+        <v>1777656</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8446576992922837</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.829323779401593</v>
+        <v>0.8261010041028796</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8611413279867837</v>
+        <v>0.8607071323781408</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>110306</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92249</v>
+        <v>90587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>131230</v>
+        <v>129498</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1452255173819278</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1214522318756907</v>
+        <v>0.1192635911969531</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1727733447889342</v>
+        <v>0.1704926055909017</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>123</v>
@@ -3849,19 +3849,19 @@
         <v>145227</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>124137</v>
+        <v>122485</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>171141</v>
+        <v>167748</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1850001603899779</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1581340247185603</v>
+        <v>0.156029269974214</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.218011063370089</v>
+        <v>0.2136891051827766</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>227</v>
@@ -3870,19 +3870,19 @@
         <v>255533</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>226790</v>
+        <v>226194</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>285986</v>
+        <v>286300</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1654406364240235</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1468311955131045</v>
+        <v>0.14644499725059</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.185156769411656</v>
+        <v>0.1853598493613661</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>649246</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>628322</v>
+        <v>630054</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>667303</v>
+        <v>668965</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8547744826180722</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8272266552110656</v>
+        <v>0.8295073944090984</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8785477681243085</v>
+        <v>0.880736408803047</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>613</v>
@@ -3920,19 +3920,19 @@
         <v>639784</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>613870</v>
+        <v>617263</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660874</v>
+        <v>662526</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8149998396100221</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7819889366299114</v>
+        <v>0.7863108948172239</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.84186597528144</v>
+        <v>0.8439707300257862</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1205</v>
@@ -3941,19 +3941,19 @@
         <v>1289030</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1258577</v>
+        <v>1258263</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1317773</v>
+        <v>1318369</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8345593635759765</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.814843230588344</v>
+        <v>0.8146401506386339</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8531688044868955</v>
+        <v>0.85355500274941</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>143187</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121907</v>
+        <v>121860</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164100</v>
+        <v>168444</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1527216163982633</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.130024554031227</v>
+        <v>0.1299746017101766</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.175027574737391</v>
+        <v>0.1796609309173733</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -4066,19 +4066,19 @@
         <v>178674</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>153478</v>
+        <v>153267</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>206890</v>
+        <v>207844</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1711803117597537</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1470404804729071</v>
+        <v>0.1468383228719477</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1982125221864706</v>
+        <v>0.1991266564001228</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>295</v>
@@ -4087,19 +4087,19 @@
         <v>321861</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>288977</v>
+        <v>288829</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>354951</v>
+        <v>354381</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1624457123940684</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1458489876209336</v>
+        <v>0.1457741426873953</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1791462706473455</v>
+        <v>0.1788587217493117</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>794380</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>773467</v>
+        <v>769123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>815660</v>
+        <v>815707</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8472783836017367</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8249724252626091</v>
+        <v>0.8203390690826267</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8699754459687731</v>
+        <v>0.8700253982898235</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>812</v>
@@ -4137,19 +4137,19 @@
         <v>865105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>836889</v>
+        <v>835935</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>890301</v>
+        <v>890512</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8288196882402463</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8017874778135295</v>
+        <v>0.8008733435998772</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8529595195270928</v>
+        <v>0.8531616771280524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1596</v>
@@ -4158,19 +4158,19 @@
         <v>1659485</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1626395</v>
+        <v>1626965</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1692369</v>
+        <v>1692517</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8375542876059316</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8208537293526544</v>
+        <v>0.8211412782506888</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8541510123790664</v>
+        <v>0.8542258573126047</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>503588</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>465253</v>
+        <v>466414</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>549938</v>
+        <v>548519</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1483606250497135</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1370669327622598</v>
+        <v>0.1374089668870654</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1620158065290756</v>
+        <v>0.1615976509356556</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>537</v>
@@ -4283,19 +4283,19 @@
         <v>629524</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>580170</v>
+        <v>584537</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>683603</v>
+        <v>679346</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1776037240304301</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.163679838705307</v>
+        <v>0.1649119799062983</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1928606882783192</v>
+        <v>0.1916597855280309</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1038</v>
@@ -4304,19 +4304,19 @@
         <v>1133112</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1072922</v>
+        <v>1070711</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1197681</v>
+        <v>1192909</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1632986565693131</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1546243970722453</v>
+        <v>0.1543057590977272</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1726040855302522</v>
+        <v>0.1719163951746582</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2890762</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2844412</v>
+        <v>2845831</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2929097</v>
+        <v>2927936</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8516393749502865</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.837984193470924</v>
+        <v>0.8384023490643441</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8629330672377402</v>
+        <v>0.8625910331129346</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2801</v>
@@ -4354,19 +4354,19 @@
         <v>2915018</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2860939</v>
+        <v>2865196</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2964372</v>
+        <v>2960005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8223962759695699</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.807139311721681</v>
+        <v>0.8083402144719691</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8363201612946931</v>
+        <v>0.8350880200937016</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5531</v>
@@ -4375,19 +4375,19 @@
         <v>5805780</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5741211</v>
+        <v>5745983</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5865970</v>
+        <v>5868181</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8367013434306869</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8273959144697478</v>
+        <v>0.8280836048253416</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8453756029277547</v>
+        <v>0.8456942409022727</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>143322</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>125519</v>
+        <v>122693</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>163026</v>
+        <v>166075</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2074991899969627</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1817249387063791</v>
+        <v>0.1776326108559972</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2360268087782686</v>
+        <v>0.2404408353543242</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>374</v>
@@ -4740,19 +4740,19 @@
         <v>167390</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>152178</v>
+        <v>151400</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>184097</v>
+        <v>183558</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2283274145305897</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2075781399216421</v>
+        <v>0.206516261029748</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2511162816516542</v>
+        <v>0.2503820045610661</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>579</v>
@@ -4761,19 +4761,19 @@
         <v>310712</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>285351</v>
+        <v>283194</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>338518</v>
+        <v>336230</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.218223450470802</v>
+        <v>0.2182234504708019</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.200411793381985</v>
+        <v>0.1988966646319842</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2377527179082912</v>
+        <v>0.2361456819977814</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>547388</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>527684</v>
+        <v>524635</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>565191</v>
+        <v>568017</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7925008100030373</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7639731912217312</v>
+        <v>0.7595591646456759</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8182750612936209</v>
+        <v>0.8223673891440031</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>865</v>
@@ -4811,19 +4811,19 @@
         <v>565723</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>549016</v>
+        <v>549555</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>580935</v>
+        <v>581713</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7716725854694102</v>
+        <v>0.7716725854694103</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7488837183483459</v>
+        <v>0.7496179954389341</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7924218600783582</v>
+        <v>0.7934837389702524</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1390</v>
@@ -4832,19 +4832,19 @@
         <v>1113111</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1085305</v>
+        <v>1087593</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1138472</v>
+        <v>1140629</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7817765495291982</v>
+        <v>0.781776549529198</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7622472820917089</v>
+        <v>0.7638543180022186</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7995882066180151</v>
+        <v>0.8011033353680157</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>173582</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>151366</v>
+        <v>151433</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>196971</v>
+        <v>198043</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.165486611662522</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1443074124726565</v>
+        <v>0.1443710005229893</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1877852745338757</v>
+        <v>0.1888071014598016</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>359</v>
@@ -4957,19 +4957,19 @@
         <v>199794</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>179784</v>
+        <v>180487</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>218627</v>
+        <v>220885</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.186577301950558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1678907585059482</v>
+        <v>0.1685477819924412</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2041642252254201</v>
+        <v>0.2062732322047457</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>583</v>
@@ -4978,19 +4978,19 @@
         <v>373376</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>341127</v>
+        <v>343996</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>401662</v>
+        <v>405967</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1761410087068775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1609274543435683</v>
+        <v>0.1622808249752357</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1894853108506806</v>
+        <v>0.1915160140490653</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>875335</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>851946</v>
+        <v>850874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>897551</v>
+        <v>897484</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8345133883374781</v>
+        <v>0.834513388337478</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8122147254661244</v>
+        <v>0.8111928985401989</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8556925875273436</v>
+        <v>0.8556289994770112</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1157</v>
@@ -5028,19 +5028,19 @@
         <v>871044</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>852211</v>
+        <v>849953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>891054</v>
+        <v>890351</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.813422698049442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.79583577477458</v>
+        <v>0.7937267677952543</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8321092414940516</v>
+        <v>0.8314522180075588</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1897</v>
@@ -5049,19 +5049,19 @@
         <v>1746379</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1718093</v>
+        <v>1713788</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1778628</v>
+        <v>1775759</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8238589912931226</v>
+        <v>0.8238589912931227</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8105146891493192</v>
+        <v>0.8084839859509345</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8390725456564317</v>
+        <v>0.8377191750247643</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>155829</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136400</v>
+        <v>133347</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>179814</v>
+        <v>177595</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1945037279948196</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1702526928144779</v>
+        <v>0.1664416959685626</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2244417156032108</v>
+        <v>0.2216714133382051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -5174,19 +5174,19 @@
         <v>137821</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>121011</v>
+        <v>121704</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156079</v>
+        <v>156718</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1698005168619985</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1490900017047217</v>
+        <v>0.1499434271790274</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1922953507664819</v>
+        <v>0.1930829070984154</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>386</v>
@@ -5195,19 +5195,19 @@
         <v>293650</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>265051</v>
+        <v>265296</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>322480</v>
+        <v>321783</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1820717162306996</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1643397782875843</v>
+        <v>0.1644916883368698</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1999471196286502</v>
+        <v>0.1995147869331157</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>645334</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>621349</v>
+        <v>623568</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>664763</v>
+        <v>667816</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8054962720051804</v>
+        <v>0.8054962720051805</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7755582843967891</v>
+        <v>0.7783285866617947</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.829747307185522</v>
+        <v>0.8335583040314376</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>829</v>
@@ -5245,19 +5245,19 @@
         <v>673842</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>655584</v>
+        <v>654945</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>690652</v>
+        <v>689959</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8301994831380016</v>
+        <v>0.8301994831380014</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.807704649233518</v>
+        <v>0.8069170929015845</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8509099982952781</v>
+        <v>0.8500565728209726</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1334</v>
@@ -5266,19 +5266,19 @@
         <v>1319176</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1290346</v>
+        <v>1291043</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1347775</v>
+        <v>1347530</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8179282837693003</v>
+        <v>0.8179282837693004</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.80005288037135</v>
+        <v>0.8004852130668845</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8356602217124161</v>
+        <v>0.8355083116631303</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>190347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>168615</v>
+        <v>167846</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>215421</v>
+        <v>213488</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1922579104475401</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.170307345478809</v>
+        <v>0.1695305515331708</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2175830947943531</v>
+        <v>0.215630930916422</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>438</v>
@@ -5391,19 +5391,19 @@
         <v>261218</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>239777</v>
+        <v>236909</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>285870</v>
+        <v>284071</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2338499794407778</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2146552918073371</v>
+        <v>0.2120885195226927</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2559198807318298</v>
+        <v>0.2543085677272682</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>699</v>
@@ -5412,19 +5412,19 @@
         <v>451565</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>419516</v>
+        <v>420165</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>483913</v>
+        <v>484106</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2143070650034184</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1990969514787421</v>
+        <v>0.1994050940016944</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2296588337513114</v>
+        <v>0.2297504647816226</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>799715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>774641</v>
+        <v>776574</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>821447</v>
+        <v>822216</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.80774208955246</v>
+        <v>0.8077420895524599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7824169052056468</v>
+        <v>0.7843690690835782</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.829692654521191</v>
+        <v>0.8304694484668291</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1121</v>
@@ -5462,19 +5462,19 @@
         <v>855813</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>831161</v>
+        <v>832960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>877254</v>
+        <v>880122</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7661500205592222</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7440801192681704</v>
+        <v>0.7456914322727318</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7853447081926627</v>
+        <v>0.7879114804773073</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1866</v>
@@ -5483,19 +5483,19 @@
         <v>1655528</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1623180</v>
+        <v>1622987</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1687577</v>
+        <v>1686928</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7856929349965817</v>
+        <v>0.7856929349965819</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7703411662486883</v>
+        <v>0.7702495352183771</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8009030485212579</v>
+        <v>0.8005949059983051</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>663080</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>617980</v>
+        <v>622317</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>707135</v>
+        <v>709888</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.187796010631028</v>
+        <v>0.1877960106310279</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1750227934358431</v>
+        <v>0.1762513565262139</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2002732370917117</v>
+        <v>0.2010529655499251</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1388</v>
@@ -5608,19 +5608,19 @@
         <v>766222</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>726167</v>
+        <v>725735</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>801713</v>
+        <v>804487</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2052759760340954</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1945448447457685</v>
+        <v>0.1944291555416998</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2147840256747564</v>
+        <v>0.21552720684233</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2247</v>
@@ -5629,19 +5629,19 @@
         <v>1429302</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1370175</v>
+        <v>1372679</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1486465</v>
+        <v>1487606</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1967788046879843</v>
+        <v>0.1967788046879842</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1886385343941576</v>
+        <v>0.1889832158006785</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2046487360578197</v>
+        <v>0.2048057457887411</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2867772</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2823717</v>
+        <v>2820964</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2912872</v>
+        <v>2908535</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8122039893689721</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7997267629082884</v>
+        <v>0.7989470344500749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8249772065641569</v>
+        <v>0.8237486434737857</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3972</v>
@@ -5679,19 +5679,19 @@
         <v>2966423</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2930932</v>
+        <v>2928158</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3006478</v>
+        <v>3006910</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7947240239659045</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7852159743252437</v>
+        <v>0.7844727931576699</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8054551552542318</v>
+        <v>0.8055708444583004</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6487</v>
@@ -5700,19 +5700,19 @@
         <v>5834195</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5777032</v>
+        <v>5775891</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5893322</v>
+        <v>5890818</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8032211953120159</v>
+        <v>0.8032211953120157</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7953512639421804</v>
+        <v>0.7951942542112589</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8113614656058422</v>
+        <v>0.8110167841993212</v>
       </c>
     </row>
     <row r="18">
